--- a/project_plan.xlsx
+++ b/project_plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>刘鑫鹏项目规划</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>创建数据库，数据表</t>
+  </si>
+  <si>
+    <t>后台管理员模块</t>
   </si>
   <si>
     <t>注意：</t>
@@ -1177,7 +1183,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1280,8 +1286,12 @@
       <c r="A7" s="4">
         <v>43495</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1291,8 +1301,12 @@
       <c r="A8" s="4">
         <v>43496</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1435,12 +1449,12 @@
     </row>
     <row r="23" ht="18.75" spans="2:2">
       <c r="B23" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1450,7 +1464,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1460,7 +1474,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1470,7 +1484,7 @@
     </row>
     <row r="27" ht="22.5" spans="2:7">
       <c r="B27" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>

--- a/project_plan.xlsx
+++ b/project_plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>刘鑫鹏项目规划</t>
   </si>
@@ -48,7 +48,7 @@
     <t>休息</t>
   </si>
   <si>
-    <t>项目整体规划，页面路由配置</t>
+    <t>项目整体规划，部分页面路由配置</t>
   </si>
   <si>
     <t>完成</t>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>后台管理员模块</t>
+  </si>
+  <si>
+    <t>前台顾客登录注册模块</t>
+  </si>
+  <si>
+    <t>部分页面路由</t>
   </si>
   <si>
     <t>注意：</t>
@@ -265,23 +271,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +302,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,72 +476,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,96 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,145 +660,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1189,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1316,8 +1322,12 @@
       <c r="A9" s="4">
         <v>43497</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1327,7 +1337,9 @@
       <c r="A10" s="4">
         <v>43498</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1449,12 +1461,12 @@
     </row>
     <row r="23" ht="18.75" spans="2:2">
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1464,7 +1476,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1474,7 +1486,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1484,7 +1496,7 @@
     </row>
     <row r="27" ht="22.5" spans="2:7">
       <c r="B27" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
